--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APLan_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D28AC5-836A-4D66-A2A4-DF85D1012ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BFD32A-D8A6-4692-BEE6-45EEDE7D8371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>make the string color to black whenever it is changed even if it is not valid</t>
   </si>
@@ -36,28 +36,49 @@
     <t>check if we can input xml or euxml in the validation</t>
   </si>
   <si>
-    <t>change the validation information on the left of the window</t>
-  </si>
-  <si>
-    <t>change the name of Signal Object Info to Planned signals</t>
-  </si>
-  <si>
-    <t>add validation icon on the dropdown menu</t>
-  </si>
-  <si>
-    <t>enhance WPF Info window</t>
-  </si>
-  <si>
-    <t>add Shourtcuts window</t>
-  </si>
-  <si>
-    <t>remove unused buttons for nw</t>
-  </si>
-  <si>
-    <t>adjust planned signal window</t>
-  </si>
-  <si>
-    <t>add a recenter button in the canvas</t>
+    <t>adjust the place of the database to be inside the project folder.</t>
+  </si>
+  <si>
+    <t>give a hint about the missing information before activating a creating button.</t>
+  </si>
+  <si>
+    <t>change the color of the background of the selected tool</t>
+  </si>
+  <si>
+    <t>allow open and save when we open a project</t>
+  </si>
+  <si>
+    <t>allow adding additional xml file later for the additional info from source file.</t>
+  </si>
+  <si>
+    <t>add X,Y coordiantes icon</t>
+  </si>
+  <si>
+    <t>allow short-cuts</t>
+  </si>
+  <si>
+    <t>put simbols icon as the second</t>
+  </si>
+  <si>
+    <t>apply selection on base canvase</t>
+  </si>
+  <si>
+    <t>recheck when a signal not located on its element</t>
+  </si>
+  <si>
+    <t>save before closing</t>
+  </si>
+  <si>
+    <t>check if project is loaded or no.</t>
+  </si>
+  <si>
+    <t>write the project name</t>
+  </si>
+  <si>
+    <t>create the additional xml when saving also.</t>
+  </si>
+  <si>
+    <t>run mdb creation async.</t>
   </si>
 </sst>
 </file>
@@ -73,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,21 +432,21 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -440,6 +468,41 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
